--- a/Tests/Validation/Wheat/data/FAR HYC W19-06-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W19-06-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR HYC W19-06-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W19-06-1.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W19-06-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W19-06-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -586,7 +587,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -623,7 +624,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -656,7 +657,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -689,7 +690,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -722,7 +723,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -755,7 +756,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -788,7 +789,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -821,7 +822,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -858,7 +859,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -899,7 +900,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -983,7 +984,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1016,7 +1017,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1049,7 +1050,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1082,7 +1083,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1115,7 +1116,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1148,7 +1149,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1181,7 +1182,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1214,7 +1215,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1251,7 +1252,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1292,7 +1293,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1376,7 +1377,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1409,7 +1410,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1442,7 +1443,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1475,7 +1476,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1508,7 +1509,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1541,7 +1542,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1574,7 +1575,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1607,7 +1608,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1644,7 +1645,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1685,7 +1686,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1769,7 +1770,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1802,7 +1803,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1835,7 +1836,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1868,7 +1869,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1901,7 +1902,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1934,7 +1935,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1967,7 +1968,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2000,7 +2001,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2037,7 +2038,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2078,7 +2079,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2162,7 +2163,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2195,7 +2196,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2228,7 +2229,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2261,7 +2262,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2294,7 +2295,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2327,7 +2328,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2360,7 +2361,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2393,7 +2394,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2430,7 +2431,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2471,7 +2472,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2555,7 +2556,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43678</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2588,7 +2589,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2621,7 +2622,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2654,7 +2655,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2687,7 +2688,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2720,7 +2721,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2753,7 +2754,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2786,7 +2787,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2819,7 +2820,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -2856,7 +2857,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -2897,7 +2898,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -2981,7 +2982,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3014,7 +3015,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3047,7 +3048,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3080,7 +3081,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3113,7 +3114,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3146,7 +3147,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3179,7 +3180,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3212,7 +3213,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3249,7 +3250,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3290,7 +3291,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3374,7 +3375,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3407,7 +3408,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3440,7 +3441,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3473,7 +3474,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3506,7 +3507,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3539,7 +3540,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3572,7 +3573,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3605,7 +3606,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -3642,7 +3643,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3683,7 +3684,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3767,7 +3768,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3800,7 +3801,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3833,7 +3834,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3866,7 +3867,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3899,7 +3900,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3932,7 +3933,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3965,7 +3966,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -3998,7 +3999,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4035,7 +4036,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4076,7 +4077,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -4160,7 +4161,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4193,7 +4194,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4226,7 +4227,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4259,7 +4260,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4292,7 +4293,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4325,7 +4326,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4358,7 +4359,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4391,7 +4392,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4428,7 +4429,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4469,7 +4470,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C112" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W19-06-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W19-06-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -587,7 +586,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -624,7 +623,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>43713</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -657,7 +656,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -690,7 +689,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -723,7 +722,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -756,7 +755,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>43802</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -789,7 +788,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>43803</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -822,7 +821,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -859,7 +858,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -900,7 +899,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -984,7 +983,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1017,7 +1016,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43713</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1050,7 +1049,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1083,7 +1082,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1116,7 +1115,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1149,7 +1148,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>43802</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1182,7 +1181,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>43803</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1215,7 +1214,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1252,7 +1251,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1293,7 +1292,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1376,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1410,7 +1409,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43713</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1443,7 +1442,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1476,7 +1475,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1509,7 +1508,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1542,7 +1541,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43802</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1575,7 +1574,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43803</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1608,7 +1607,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1645,7 +1644,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1686,7 +1685,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1770,7 +1769,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1803,7 +1802,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>43713</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1836,7 +1835,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1869,7 +1868,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1902,7 +1901,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1935,7 +1934,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>43802</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1968,7 +1967,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>43803</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2001,7 +2000,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2038,7 +2037,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2079,7 +2078,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2163,7 +2162,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2196,7 +2195,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43713</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2229,7 +2228,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2262,7 +2261,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2295,7 +2294,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2328,7 +2327,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>43802</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2361,7 +2360,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>43803</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2394,7 +2393,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2431,7 +2430,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2472,7 +2471,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2556,7 +2555,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>43678</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2589,7 +2588,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2622,7 +2621,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43713</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2655,7 +2654,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2688,7 +2687,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2721,7 +2720,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2754,7 +2753,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43802</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2787,7 +2786,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43803</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2820,7 +2819,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -2857,7 +2856,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -2898,7 +2897,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -2982,7 +2981,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3015,7 +3014,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>43713</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3048,7 +3047,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3081,7 +3080,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3114,7 +3113,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3147,7 +3146,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>43802</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3180,7 +3179,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>43803</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3213,7 +3212,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3250,7 +3249,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3291,7 +3290,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3375,7 +3374,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3408,7 +3407,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43713</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3441,7 +3440,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3474,7 +3473,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3507,7 +3506,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3540,7 +3539,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>43802</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3573,7 +3572,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>43803</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3606,7 +3605,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -3643,7 +3642,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3684,7 +3683,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3768,7 +3767,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3801,7 +3800,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>43713</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3834,7 +3833,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3867,7 +3866,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3900,7 +3899,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3933,7 +3932,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43802</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3966,7 +3965,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43803</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -3999,7 +3998,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4036,7 +4035,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4077,7 +4076,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -4161,7 +4160,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>43690</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4194,7 +4193,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>43713</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4227,7 +4226,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4260,7 +4259,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4293,7 +4292,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4326,7 +4325,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>43802</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4359,7 +4358,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>43803</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4392,7 +4391,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>43833</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4429,7 +4428,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>43837</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4470,7 +4469,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C112" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W19-06-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W19-06-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -586,7 +587,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -623,7 +624,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -656,7 +657,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -689,7 +690,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -722,7 +723,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -755,7 +756,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -788,7 +789,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -821,7 +822,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -858,7 +859,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -899,7 +900,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -983,7 +984,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1016,7 +1017,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1049,7 +1050,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1082,7 +1083,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1115,7 +1116,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1148,7 +1149,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1181,7 +1182,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1214,7 +1215,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -1251,7 +1252,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1292,7 +1293,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1376,7 +1377,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1409,7 +1410,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1442,7 +1443,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1475,7 +1476,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1508,7 +1509,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1541,7 +1542,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1574,7 +1575,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1607,7 +1608,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1644,7 +1645,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1685,7 +1686,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1769,7 +1770,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1802,7 +1803,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1835,7 +1836,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1868,7 +1869,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1901,7 +1902,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1934,7 +1935,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1967,7 +1968,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2000,7 +2001,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2037,7 +2038,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2078,7 +2079,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2162,7 +2163,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2195,7 +2196,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2228,7 +2229,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2261,7 +2262,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2294,7 +2295,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2327,7 +2328,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2360,7 +2361,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2393,7 +2394,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2430,7 +2431,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2471,7 +2472,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2555,7 +2556,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43678</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2588,7 +2589,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2621,7 +2622,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2654,7 +2655,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2687,7 +2688,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2720,7 +2721,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2753,7 +2754,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2786,7 +2787,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2819,7 +2820,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -2856,7 +2857,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -2897,7 +2898,7 @@
           <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -2981,7 +2982,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3014,7 +3015,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3047,7 +3048,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3080,7 +3081,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3113,7 +3114,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3146,7 +3147,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3179,7 +3180,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3212,7 +3213,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3249,7 +3250,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3290,7 +3291,7 @@
           <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3374,7 +3375,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3407,7 +3408,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3440,7 +3441,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3473,7 +3474,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3506,7 +3507,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3539,7 +3540,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3572,7 +3573,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3605,7 +3606,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -3642,7 +3643,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3683,7 +3684,7 @@
           <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -3767,7 +3768,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3800,7 +3801,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3833,7 +3834,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3866,7 +3867,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3899,7 +3900,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3932,7 +3933,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3965,7 +3966,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -3998,7 +3999,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4035,7 +4036,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4076,7 +4077,7 @@
           <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -4160,7 +4161,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43690</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4193,7 +4194,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43713</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4226,7 +4227,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43739</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4259,7 +4260,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43769</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4292,7 +4293,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43791</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4325,7 +4326,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43802</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4358,7 +4359,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43803</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4391,7 +4392,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43833</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4428,7 +4429,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43837</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4469,7 +4470,7 @@
           <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43860</v>
       </c>
       <c r="C112" t="inlineStr">
